--- a/data/education/original/Tab6_FOD.xlsx
+++ b/data/education/original/Tab6_FOD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Table 6"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
   <si>
     <t xml:space="preserve">Table M2: Margins of Error for Field of Bachelor's Degree for First Major by Select Metropolitan Statistical Areas in 2022 </t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Arts, Humanities and Other Degrees</t>
+  </si>
+  <si>
+    <t>Select Metropolitan Statistical Areas</t>
   </si>
   <si>
     <t xml:space="preserve">Total Population (2022) </t>
@@ -63,7 +66,7 @@
     <t xml:space="preserve">Mechanical Engineering </t>
   </si>
   <si>
-    <t>Mathmatics</t>
+    <t>Mathematics</t>
   </si>
   <si>
     <t xml:space="preserve">Biology </t>
@@ -313,9 +316,6 @@
   </si>
   <si>
     <t xml:space="preserve">Arts, Humanities and Other Degrees </t>
-  </si>
-  <si>
-    <t>Select Metropolitan Statistical Areas</t>
   </si>
   <si>
     <t>Total Population</t>
@@ -1101,7 +1101,7 @@
   </sheetPr>
   <dimension ref="A1:AL70"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <pane state="frozen" activePane="topRight" topLeftCell="B1" ySplit="0" xSplit="1"/>
     </sheetView>
   </sheetViews>
@@ -1149,7 +1149,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="38"/>
@@ -1193,7 +1193,7 @@
       <c r="A2" s="27"/>
       <c r="B2" s="39"/>
       <c r="C2" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -1268,7 +1268,7 @@
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
       <c r="AB3" s="46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC3" s="43"/>
       <c r="AD3" s="43"/>
@@ -1283,7 +1283,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60.75">
       <c r="A4" s="47" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>81</v>
@@ -1292,109 +1292,109 @@
         <v>82</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L4" s="50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M4" s="53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4" s="53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O4" s="53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P4" s="53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="53" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R4" s="49" t="s">
         <v>83</v>
       </c>
       <c r="S4" s="54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T4" s="55" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U4" s="50" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V4" s="53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W4" s="54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X4" s="50" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y4" s="50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z4" s="51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA4" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB4" s="50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC4" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AD4" s="50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE4" s="54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF4" s="55" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG4" s="50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH4" s="51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI4" s="52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ4" s="52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AK4" s="55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL4" s="53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
@@ -1515,7 +1515,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="59">
         <v>3349000</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B7" s="56">
         <v>1376000</v>
@@ -1747,7 +1747,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" s="56">
         <v>1495000</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="59">
         <v>2629000</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="56">
         <v>1484000</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="59">
         <v>4997000</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="56">
         <v>1160000</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="59">
         <v>4247000</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="56">
         <v>1693000</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="59">
         <v>2276000</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="59">
         <v>3856000</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" s="56">
         <v>1246000</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B18" s="59">
         <v>7054000</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" s="59">
         <v>3244000</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="56">
         <v>1959000</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="59">
         <v>10460000</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="56">
         <v>1484000</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" s="59">
         <v>3275000</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" s="59">
         <v>2587000</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B25" s="56">
         <v>1209000</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="56">
         <v>1392000</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" s="59">
         <v>2399000</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="56">
         <v>1257000</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="56">
         <v>1453000</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="27" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B30" s="56">
         <v>1379000</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="56">
         <v>1761000</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B32" s="59">
         <v>2562000</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" s="59">
         <v>2285000</v>
@@ -4763,7 +4763,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B34" s="56">
         <v>1722000</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="33">
       <c r="A35" s="62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B35" s="63">
         <v>3466000</v>
@@ -4995,7 +4995,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="66"/>
       <c r="C36" s="38"/>
@@ -5037,7 +5037,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="66"/>
       <c r="C37" s="38"/>
@@ -6421,7 +6421,7 @@
   </sheetPr>
   <dimension ref="A1:AM37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="topRight" topLeftCell="B1" ySplit="0" xSplit="1"/>
     </sheetView>
   </sheetViews>
@@ -6563,123 +6563,125 @@
       <c r="AM2" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R3" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y3" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z3" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA3" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC3" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AD3" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE3" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AF3" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AH3" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI3" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AK3" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL3" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AM3" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" s="15">
         <v>59800</v>
@@ -6796,7 +6798,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="21">
         <v>6299</v>
@@ -6913,7 +6915,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="15">
         <v>2007</v>
@@ -7030,7 +7032,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="15">
         <v>2403</v>
@@ -7147,7 +7149,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B8" s="21">
         <v>2571</v>
@@ -7264,7 +7266,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="15">
         <v>3456</v>
@@ -7381,7 +7383,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="21">
         <v>2834</v>
@@ -7498,7 +7500,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="15">
         <v>3433</v>
@@ -7615,7 +7617,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="21">
         <v>3288</v>
@@ -7732,7 +7734,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="15">
         <v>2423</v>
@@ -7849,7 +7851,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14" s="21">
         <v>1126</v>
@@ -7966,7 +7968,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="21">
         <v>2854</v>
@@ -8083,7 +8085,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16" s="15">
         <v>704</v>
@@ -8200,7 +8202,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="21">
         <v>1532</v>
@@ -8317,7 +8319,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" s="21">
         <v>698</v>
@@ -8434,7 +8436,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="15">
         <v>3102</v>
@@ -8551,7 +8553,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B20" s="21">
         <v>3961</v>
@@ -8668,7 +8670,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="15">
         <v>2045</v>
@@ -8785,7 +8787,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="21">
         <v>2395</v>
@@ -8902,7 +8904,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B23" s="21">
         <v>1589</v>
@@ -9019,7 +9021,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="15">
         <v>1744</v>
@@ -9136,7 +9138,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B25" s="15">
         <v>2750</v>
@@ -9253,7 +9255,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" s="21">
         <v>790</v>
@@ -9370,7 +9372,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B27" s="15">
         <v>2117</v>
@@ -9487,7 +9489,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="15">
         <v>2319</v>
@@ -9604,7 +9606,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="15">
         <v>3293</v>
@@ -9721,7 +9723,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="15">
         <v>560</v>
@@ -9838,7 +9840,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B31" s="21">
         <v>2346</v>
@@ -9955,7 +9957,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="21">
         <v>1294</v>
@@ -10072,7 +10074,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B33" s="15">
         <v>1708</v>
@@ -10189,7 +10191,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" s="24">
         <v>4341</v>
@@ -10306,7 +10308,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="29"/>
@@ -10349,7 +10351,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="29"/>
@@ -10392,7 +10394,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="32"/>
       <c r="C37" s="30"/>
